--- a/statics/empty_book.xlsx
+++ b/statics/empty_book.xlsx
@@ -408,7 +408,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,88 +509,88 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="5" t="n">
-        <v>42390</v>
+        <v>42485</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="n">
+      <c r="J3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>6</v>
-      </c>
       <c r="K3" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="P3" s="7" t="n">
-        <v>11</v>
-      </c>
       <c r="Q3" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="T3" s="7" t="n">
+      <c r="V3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="U3" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="V3" s="7" t="n">
-        <v>2</v>
-      </c>
       <c r="W3" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X3" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -598,82 +598,82 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="n">
+      <c r="J4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="T4" s="7" t="n">
+      <c r="V4" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="U4" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="V4" s="7" t="n">
-        <v>2</v>
-      </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="7" t="n">
         <v>9</v>
       </c>
       <c r="Z4" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -681,67 +681,67 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="J5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="P5" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>5</v>
-      </c>
       <c r="S5" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="U5" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="V5" s="7" t="n">
-        <v>2</v>
-      </c>
       <c r="W5" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="7" t="n">
         <v>4</v>
@@ -750,19 +750,272 @@
         <v>9</v>
       </c>
       <c r="Z5" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="5" t="n">
+        <v>42486</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
